--- a/public/data/profit/profit_table_cameroon.xlsx
+++ b/public/data/profit/profit_table_cameroon.xlsx
@@ -1338,37 +1338,37 @@
         <v>83</v>
       </c>
       <c r="D2" t="n">
-        <v>-317.1</v>
+        <v>-234.63</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3595.09</v>
+        <v>1302.18</v>
       </c>
       <c r="G2" t="n">
-        <v>186.06</v>
+        <v>591.76</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-162.57</v>
+        <v>-47.93</v>
       </c>
       <c r="J2" t="n">
-        <v>-174.33</v>
+        <v>-55.61</v>
       </c>
       <c r="K2" t="n">
-        <v>940.34</v>
+        <v>337.81</v>
       </c>
       <c r="L2" t="n">
-        <v>3330.99</v>
+        <v>1215.07</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-103.63</v>
+        <v>-30.44</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-334.35</v>
+        <v>-201.65</v>
       </c>
       <c r="R2" t="n">
-        <v>-291.25</v>
+        <v>-206.09</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1389,22 +1389,22 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>853.24</v>
+        <v>319.34</v>
       </c>
       <c r="V2" t="n">
-        <v>-201.07</v>
+        <v>-111.12</v>
       </c>
       <c r="W2" t="n">
-        <v>560.62</v>
+        <v>655.43</v>
       </c>
       <c r="X2" t="n">
-        <v>-122.91</v>
+        <v>-46.93</v>
       </c>
       <c r="Y2" t="n">
-        <v>782.4</v>
+        <v>1138.88</v>
       </c>
       <c r="Z2" t="n">
-        <v>-213.14</v>
+        <v>-86.91</v>
       </c>
     </row>
     <row r="3">
@@ -1418,37 +1418,37 @@
         <v>84</v>
       </c>
       <c r="D3" t="n">
-        <v>-289.92</v>
+        <v>-155.45</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5605.86</v>
+        <v>1343.46</v>
       </c>
       <c r="G3" t="n">
-        <v>-57.62</v>
+        <v>118.68</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-180.87</v>
+        <v>-38.26</v>
       </c>
       <c r="J3" t="n">
-        <v>-201.84</v>
+        <v>-65.88</v>
       </c>
       <c r="K3" t="n">
-        <v>1639.66</v>
+        <v>361.94</v>
       </c>
       <c r="L3" t="n">
-        <v>5993.21</v>
+        <v>1490.7</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-123.14</v>
+        <v>-36.36</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-216.73</v>
+        <v>-108.33</v>
       </c>
       <c r="R3" t="n">
-        <v>-281.83</v>
+        <v>-147.14</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1469,22 +1469,22 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1831.48</v>
+        <v>407.04</v>
       </c>
       <c r="V3" t="n">
-        <v>-182.54</v>
+        <v>-40.59</v>
       </c>
       <c r="W3" t="n">
-        <v>432.59</v>
+        <v>519.41</v>
       </c>
       <c r="X3" t="n">
-        <v>-143.12</v>
+        <v>-22.35</v>
       </c>
       <c r="Y3" t="n">
-        <v>561.23</v>
+        <v>708.56</v>
       </c>
       <c r="Z3" t="n">
-        <v>-219.98</v>
+        <v>-111.58</v>
       </c>
     </row>
     <row r="4">
@@ -1498,37 +1498,37 @@
         <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>-268.01</v>
+        <v>-137.62</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4009.37</v>
+        <v>1533.07</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.69</v>
+        <v>178.26</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-160.67</v>
+        <v>-40.1</v>
       </c>
       <c r="J4" t="n">
-        <v>-173.02</v>
+        <v>-39.23</v>
       </c>
       <c r="K4" t="n">
-        <v>1734.33</v>
+        <v>405.62</v>
       </c>
       <c r="L4" t="n">
-        <v>2425.16</v>
+        <v>1369.79</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-73.36</v>
+        <v>22.18</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-258.46</v>
+        <v>-127.71</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1549,19 +1549,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1061.64</v>
+        <v>277.72</v>
       </c>
       <c r="V4" t="n">
-        <v>-156.32</v>
+        <v>-34.23</v>
       </c>
       <c r="W4" t="n">
-        <v>154.27</v>
+        <v>251.43</v>
       </c>
       <c r="X4" t="n">
-        <v>-94.89</v>
+        <v>-14.87</v>
       </c>
       <c r="Y4" t="n">
-        <v>974.31</v>
+        <v>1155.12</v>
       </c>
       <c r="Z4" t="n">
         <v>0</v>
@@ -1578,37 +1578,37 @@
         <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>-532.62</v>
+        <v>-329.47</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4190.2</v>
+        <v>1754.88</v>
       </c>
       <c r="G5" t="n">
-        <v>-127.23</v>
+        <v>324.47</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-373.79</v>
+        <v>-97.78</v>
       </c>
       <c r="J5" t="n">
-        <v>-344.36</v>
+        <v>-88.27</v>
       </c>
       <c r="K5" t="n">
-        <v>1483.26</v>
+        <v>597.84</v>
       </c>
       <c r="L5" t="n">
-        <v>3090.67</v>
+        <v>1268.26</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-349.49</v>
+        <v>-160.24</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-519.13</v>
+        <v>-292.81</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1629,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1232.47</v>
+        <v>510.55</v>
       </c>
       <c r="V5" t="n">
-        <v>-385.35</v>
+        <v>-115.71</v>
       </c>
       <c r="W5" t="n">
-        <v>-39.27</v>
+        <v>150.08</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>1708.78</v>
+        <v>2175.47</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
@@ -1658,49 +1658,49 @@
         <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>-105.03</v>
+        <v>-44.19</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>633.38</v>
+        <v>655.92</v>
       </c>
       <c r="G6" t="n">
-        <v>-33.82</v>
+        <v>81.99</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-44.41</v>
+        <v>-12.45</v>
       </c>
       <c r="J6" t="n">
-        <v>-84.86</v>
+        <v>-12.55</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>519.32</v>
+        <v>542.96</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-73.41</v>
+        <v>-8.21</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-150.29</v>
+        <v>-76.85</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-103.3</v>
+        <v>-41.74</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1709,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>-10.92</v>
+        <v>51.68</v>
       </c>
       <c r="V6" t="n">
-        <v>-43.99</v>
+        <v>-7.87</v>
       </c>
       <c r="W6" t="n">
-        <v>-89.46</v>
+        <v>-24.23</v>
       </c>
       <c r="X6" t="n">
-        <v>-43.61</v>
+        <v>-4.37</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.93</v>
+        <v>203.45</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1738,37 +1738,37 @@
         <v>89</v>
       </c>
       <c r="D7" t="n">
-        <v>-76.24</v>
+        <v>-55.81</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>271.12</v>
+        <v>318.35</v>
       </c>
       <c r="G7" t="n">
-        <v>-14.77</v>
+        <v>71.3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-38.98</v>
+        <v>-18.67</v>
       </c>
       <c r="J7" t="n">
-        <v>-58.11</v>
+        <v>-15.99</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>498.19</v>
+        <v>493.45</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-89.32</v>
+        <v>-28.66</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-74.22</v>
+        <v>-51.26</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1789,19 +1789,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>-2.37</v>
+        <v>54.87</v>
       </c>
       <c r="V7" t="n">
-        <v>-38.46</v>
+        <v>-16.81</v>
       </c>
       <c r="W7" t="n">
-        <v>121.9</v>
+        <v>187.53</v>
       </c>
       <c r="X7" t="n">
-        <v>-36.86</v>
+        <v>-8.72</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.54</v>
+        <v>274.61</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1818,49 +1818,49 @@
         <v>90</v>
       </c>
       <c r="D8" t="n">
-        <v>-128.99</v>
+        <v>-97.22</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>418.93</v>
+        <v>447.92</v>
       </c>
       <c r="G8" t="n">
-        <v>-42.84</v>
+        <v>96.87</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-64.72</v>
+        <v>-56.51</v>
       </c>
       <c r="J8" t="n">
-        <v>-105.84</v>
+        <v>-55.07</v>
       </c>
       <c r="K8" t="n">
-        <v>-234.79</v>
+        <v>-138.49</v>
       </c>
       <c r="L8" t="n">
-        <v>431.69</v>
+        <v>461.82</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-156.36</v>
+        <v>-76.32</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-188.94</v>
+        <v>-108.61</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-127.21</v>
+        <v>-94.06</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>-19.37</v>
+        <v>66.19</v>
       </c>
       <c r="V8" t="n">
-        <v>-65.7</v>
+        <v>-62.12</v>
       </c>
       <c r="W8" t="n">
-        <v>63.06</v>
+        <v>146</v>
       </c>
       <c r="X8" t="n">
-        <v>-64.53</v>
+        <v>-59.94</v>
       </c>
       <c r="Y8" t="n">
-        <v>76.27</v>
+        <v>283.78</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1898,70 +1898,70 @@
         <v>91</v>
       </c>
       <c r="D9" t="n">
-        <v>-138.38</v>
+        <v>-132.06</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1354.15</v>
+        <v>1128.84</v>
       </c>
       <c r="G9" t="n">
-        <v>-17.73</v>
+        <v>189.84</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-74.07</v>
+        <v>-88.53</v>
       </c>
       <c r="J9" t="n">
-        <v>-99.19</v>
+        <v>-54.85</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>680.74</v>
+        <v>629.24</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-131.71</v>
+        <v>-60.9</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-177.07</v>
+        <v>-107.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>-218.98</v>
+        <v>-139.16</v>
       </c>
       <c r="R9" t="n">
-        <v>-134.56</v>
+        <v>-124.25</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-149.4</v>
+        <v>-75.22</v>
       </c>
       <c r="U9" t="n">
-        <v>21.65</v>
+        <v>85.86</v>
       </c>
       <c r="V9" t="n">
-        <v>-75.73</v>
+        <v>-103.84</v>
       </c>
       <c r="W9" t="n">
-        <v>187.64</v>
+        <v>268.72</v>
       </c>
       <c r="X9" t="n">
-        <v>-74.91</v>
+        <v>-135.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>150.48</v>
+        <v>426.48</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1978,37 +1978,37 @@
         <v>92</v>
       </c>
       <c r="D10" t="n">
-        <v>-127.23</v>
+        <v>-61.22</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1362</v>
+        <v>1208.27</v>
       </c>
       <c r="G10" t="n">
-        <v>-33.82</v>
+        <v>70.87</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-59.19</v>
+        <v>-18.48</v>
       </c>
       <c r="J10" t="n">
-        <v>-73.71</v>
+        <v>-0.68</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1269.25</v>
+        <v>1145.94</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-30.84</v>
+        <v>20.79</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-121.33</v>
+        <v>-54.56</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2029,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>266.39</v>
+        <v>287.86</v>
       </c>
       <c r="V10" t="n">
-        <v>-58.49</v>
+        <v>-16.07</v>
       </c>
       <c r="W10" t="n">
-        <v>332.67</v>
+        <v>384.3</v>
       </c>
       <c r="X10" t="n">
-        <v>-57.45</v>
+        <v>-12.46</v>
       </c>
       <c r="Y10" t="n">
-        <v>275.64</v>
+        <v>393.72</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -2058,37 +2058,37 @@
         <v>93</v>
       </c>
       <c r="D11" t="n">
-        <v>-118.33</v>
+        <v>-53.87</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>589.26</v>
+        <v>617.15</v>
       </c>
       <c r="G11" t="n">
-        <v>-31.84</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-40.76</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-87.17</v>
+        <v>-17.25</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>779.66</v>
+        <v>791.61</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-70.87</v>
+        <v>-15.57</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-114.53</v>
+        <v>-49.41</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2109,19 +2109,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-17.32</v>
+        <v>45.97</v>
       </c>
       <c r="V11" t="n">
-        <v>-40.58</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>68.24</v>
+        <v>123.54</v>
       </c>
       <c r="X11" t="n">
-        <v>-39.89</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>147.48</v>
+        <v>258.38</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
@@ -2138,37 +2138,37 @@
         <v>94</v>
       </c>
       <c r="D12" t="n">
-        <v>-96.52</v>
+        <v>-26.51</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>367.11</v>
+        <v>405.23</v>
       </c>
       <c r="G12" t="n">
-        <v>-19.24</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>-20.26</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-88.46</v>
+        <v>-13.86</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>381.81</v>
+        <v>417.41</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-132.51</v>
+        <v>-57.46</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-95.48</v>
+        <v>-24.86</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2189,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-72.84</v>
+        <v>4.46</v>
       </c>
       <c r="V12" t="n">
-        <v>-20.23</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>86.17</v>
+        <v>161.23</v>
       </c>
       <c r="X12" t="n">
-        <v>-20.13</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>-27.31</v>
+        <v>83.18</v>
       </c>
       <c r="Z12" t="n">
         <v>0</v>
@@ -2218,37 +2218,37 @@
         <v>95</v>
       </c>
       <c r="D13" t="n">
-        <v>-204.1</v>
+        <v>-119.8</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1043.61</v>
+        <v>1036.06</v>
       </c>
       <c r="G13" t="n">
-        <v>48.61</v>
+        <v>212.66</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-106.36</v>
+        <v>-33.94</v>
       </c>
       <c r="J13" t="n">
-        <v>-83.56</v>
+        <v>4.29</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>3806.37</v>
+        <v>1521.51</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>135.96</v>
+        <v>180.59</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-194.9</v>
+        <v>-110.34</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2269,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>216.56</v>
+        <v>220.7</v>
       </c>
       <c r="V13" t="n">
-        <v>-102.1</v>
+        <v>-27.14</v>
       </c>
       <c r="W13" t="n">
-        <v>389.7</v>
+        <v>446.5</v>
       </c>
       <c r="X13" t="n">
-        <v>-95.25</v>
+        <v>-29.12</v>
       </c>
       <c r="Y13" t="n">
-        <v>1535.66</v>
+        <v>1673.37</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2298,37 +2298,37 @@
         <v>96</v>
       </c>
       <c r="D14" t="n">
-        <v>-110.22</v>
+        <v>-51.19</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1171.79</v>
+        <v>1082.72</v>
       </c>
       <c r="G14" t="n">
-        <v>-43.61</v>
+        <v>39.11</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-70.48</v>
+        <v>-14.6</v>
       </c>
       <c r="J14" t="n">
-        <v>-70.98</v>
+        <v>-4.33</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1035.61</v>
+        <v>958.8</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-41.49</v>
+        <v>7.42</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-105.51</v>
+        <v>-45.34</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2349,19 +2349,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>604.54</v>
+        <v>536.83</v>
       </c>
       <c r="V14" t="n">
-        <v>-69.75</v>
+        <v>-13.38</v>
       </c>
       <c r="W14" t="n">
-        <v>163.98</v>
+        <v>212.89</v>
       </c>
       <c r="X14" t="n">
-        <v>-67.99</v>
+        <v>-12.07</v>
       </c>
       <c r="Y14" t="n">
-        <v>183.11</v>
+        <v>298.24</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2378,37 +2378,37 @@
         <v>97</v>
       </c>
       <c r="D15" t="n">
-        <v>-130.18</v>
+        <v>-65.03</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1370.48</v>
+        <v>1305.52</v>
       </c>
       <c r="G15" t="n">
-        <v>-32.86</v>
+        <v>55.12</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-54.36</v>
+        <v>-9.31</v>
       </c>
       <c r="J15" t="n">
-        <v>-67.99</v>
+        <v>-1.42</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1432.34</v>
+        <v>1365.02</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>20.92</v>
+        <v>63.98</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-122.97</v>
+        <v>-57.65</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2429,19 +2429,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>459.79</v>
+        <v>465.02</v>
       </c>
       <c r="V15" t="n">
-        <v>-53.7</v>
+        <v>-7.65</v>
       </c>
       <c r="W15" t="n">
-        <v>184.03</v>
+        <v>227.09</v>
       </c>
       <c r="X15" t="n">
-        <v>-52.78</v>
+        <v>-5.09</v>
       </c>
       <c r="Y15" t="n">
-        <v>427.73</v>
+        <v>505.89</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
@@ -2458,13 +2458,13 @@
         <v>99</v>
       </c>
       <c r="D16" t="n">
-        <v>-33.67</v>
+        <v>-10.5</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-41.38</v>
+        <v>16.27</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -2476,19 +2476,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-30.87</v>
+        <v>-4.52</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>84.09</v>
+        <v>119.18</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-90.99</v>
+        <v>-37.46</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2497,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-57.21</v>
+        <v>-14.96</v>
       </c>
       <c r="R16" t="n">
-        <v>-33.47</v>
+        <v>-9.85</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-78.74</v>
+        <v>-57.91</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -2515,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-27.26</v>
+        <v>43.16</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-5.1</v>
+        <v>30.84</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2538,37 +2538,37 @@
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>-118.54</v>
+        <v>-64.29</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1211.05</v>
+        <v>1002.45</v>
       </c>
       <c r="G17" t="n">
-        <v>-30.41</v>
+        <v>59.76</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-72.03</v>
+        <v>-15.18</v>
       </c>
       <c r="J17" t="n">
-        <v>-77.27</v>
+        <v>-13.67</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1383.93</v>
+        <v>1142.37</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-50.94</v>
+        <v>0.4</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-118.35</v>
+        <v>-63.72</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2592,16 +2592,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-71.04</v>
+        <v>-13.53</v>
       </c>
       <c r="W17" t="n">
-        <v>120.42</v>
+        <v>171.76</v>
       </c>
       <c r="X17" t="n">
-        <v>-69.14</v>
+        <v>-16.22</v>
       </c>
       <c r="Y17" t="n">
-        <v>186.29</v>
+        <v>314.68</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
@@ -2618,70 +2618,70 @@
         <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>-246.22</v>
+        <v>-172.58</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4127.42</v>
+        <v>1937.54</v>
       </c>
       <c r="G18" t="n">
-        <v>-24.63</v>
+        <v>171.11</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-184.93</v>
+        <v>-113.99</v>
       </c>
       <c r="J18" t="n">
-        <v>-173.57</v>
+        <v>-83.47</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1533.91</v>
+        <v>903.81</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-142.44</v>
+        <v>-72.93</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-321.55</v>
+        <v>-234.16</v>
       </c>
       <c r="Q18" t="n">
-        <v>-158.72</v>
+        <v>-69.54</v>
       </c>
       <c r="R18" t="n">
-        <v>-243.64</v>
+        <v>-169.51</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>-299.53</v>
+        <v>-222.87</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>-180.29</v>
+        <v>-105.58</v>
       </c>
       <c r="W18" t="n">
-        <v>87.66</v>
+        <v>173.24</v>
       </c>
       <c r="X18" t="n">
-        <v>-172.19</v>
+        <v>-97.99</v>
       </c>
       <c r="Y18" t="n">
-        <v>330.97</v>
+        <v>539.61</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
@@ -2698,70 +2698,70 @@
         <v>102</v>
       </c>
       <c r="D19" t="n">
-        <v>-208.99</v>
+        <v>-181.38</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1228.32</v>
+        <v>895.16</v>
       </c>
       <c r="G19" t="n">
-        <v>113.08</v>
+        <v>464.13</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-144.6</v>
+        <v>-117.15</v>
       </c>
       <c r="J19" t="n">
-        <v>-144.66</v>
+        <v>-81.88</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>858.79</v>
+        <v>621.36</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-145.85</v>
+        <v>-67.11</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-177.89</v>
+        <v>-99.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>-153.72</v>
+        <v>-82.15</v>
       </c>
       <c r="R19" t="n">
-        <v>-207.84</v>
+        <v>-178.45</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-258.29</v>
+        <v>-210.28</v>
       </c>
       <c r="U19" t="n">
-        <v>624.77</v>
+        <v>467.86</v>
       </c>
       <c r="V19" t="n">
-        <v>-140.46</v>
+        <v>-107.31</v>
       </c>
       <c r="W19" t="n">
-        <v>10.56</v>
+        <v>98.34</v>
       </c>
       <c r="X19" t="n">
-        <v>-135.56</v>
+        <v>-105.72</v>
       </c>
       <c r="Y19" t="n">
-        <v>261.02</v>
+        <v>554.12</v>
       </c>
       <c r="Z19" t="n">
         <v>0</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.19</v>
+        <v>32.77</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2796,25 +2796,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-44.81</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>-23.26</v>
+        <v>-19.52</v>
       </c>
       <c r="L20" t="n">
-        <v>11.4</v>
+        <v>82.9</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-27.51</v>
+        <v>-36.41</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-28.2</v>
+        <v>-40.97</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2826,22 +2826,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-26.82</v>
+        <v>-35.03</v>
       </c>
       <c r="U20" t="n">
-        <v>-29.26</v>
+        <v>-27.26</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-18.62</v>
+        <v>0.77</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-27.61</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
         <v>0</v>
@@ -2858,16 +2858,16 @@
         <v>105</v>
       </c>
       <c r="D21" t="n">
-        <v>-107.85</v>
+        <v>-73.6</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.68</v>
+        <v>46.36</v>
       </c>
       <c r="G21" t="n">
-        <v>-40.62</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2876,55 +2876,55 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>-93.09</v>
+        <v>-56.65</v>
       </c>
       <c r="K21" t="n">
-        <v>-99.7</v>
+        <v>-74.69</v>
       </c>
       <c r="L21" t="n">
-        <v>43.01</v>
+        <v>124.8</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>-128.62</v>
+        <v>-134.6</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-130.39</v>
+        <v>-138.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>-6.29</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-112.14</v>
+        <v>-69.74</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>-128.49</v>
+        <v>-135.51</v>
       </c>
       <c r="U21" t="n">
-        <v>-62.53</v>
+        <v>-3.4</v>
       </c>
       <c r="V21" t="n">
-        <v>-45.37</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>-49.14</v>
+        <v>20.77</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>-19.06</v>
+        <v>120.83</v>
       </c>
       <c r="Z21" t="n">
-        <v>-126.02</v>
+        <v>-57.79</v>
       </c>
     </row>
     <row r="22">
@@ -3018,16 +3018,16 @@
         <v>107</v>
       </c>
       <c r="D23" t="n">
-        <v>-123.93</v>
+        <v>-112.89</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>115.95</v>
+        <v>218.19</v>
       </c>
       <c r="G23" t="n">
-        <v>-54.8</v>
+        <v>38.34</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3036,55 +3036,55 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-106.69</v>
+        <v>-81.78</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.65</v>
+        <v>61.32</v>
       </c>
       <c r="L23" t="n">
-        <v>128.08</v>
+        <v>232.03</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-116.95</v>
+        <v>-103.96</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-128.32</v>
+        <v>-123.09</v>
       </c>
       <c r="Q23" t="n">
-        <v>122.79</v>
+        <v>379.72</v>
       </c>
       <c r="R23" t="n">
-        <v>-114.94</v>
+        <v>-97.92</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-121.58</v>
+        <v>-112.42</v>
       </c>
       <c r="U23" t="n">
-        <v>-81.94</v>
+        <v>-35.72</v>
       </c>
       <c r="V23" t="n">
-        <v>-71.63</v>
+        <v>-67.89</v>
       </c>
       <c r="W23" t="n">
-        <v>-22.53</v>
+        <v>53.39</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.52</v>
+        <v>273.38</v>
       </c>
       <c r="Z23" t="n">
-        <v>-149.15</v>
+        <v>-84.12</v>
       </c>
     </row>
     <row r="24">
@@ -3098,37 +3098,37 @@
         <v>109</v>
       </c>
       <c r="D24" t="n">
-        <v>-406.8</v>
+        <v>-341.75</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2479.78</v>
+        <v>619.7</v>
       </c>
       <c r="G24" t="n">
-        <v>166.25</v>
+        <v>706.43</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-271.7</v>
+        <v>-118.32</v>
       </c>
       <c r="J24" t="n">
-        <v>-239.68</v>
+        <v>-79.58</v>
       </c>
       <c r="K24" t="n">
-        <v>646.82</v>
+        <v>178.54</v>
       </c>
       <c r="L24" t="n">
-        <v>2406.12</v>
+        <v>648.26</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>-229.16</v>
+        <v>-100.08</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-394.56</v>
+        <v>-302.54</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3149,22 +3149,22 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>556.58</v>
+        <v>156.07</v>
       </c>
       <c r="V24" t="n">
-        <v>-301.65</v>
+        <v>-179.38</v>
       </c>
       <c r="W24" t="n">
-        <v>228.98</v>
+        <v>386.26</v>
       </c>
       <c r="X24" t="n">
-        <v>-190.86</v>
+        <v>-88.58</v>
       </c>
       <c r="Y24" t="n">
-        <v>935.91</v>
+        <v>1668.74</v>
       </c>
       <c r="Z24" t="n">
-        <v>-359.5</v>
+        <v>-226.4</v>
       </c>
     </row>
     <row r="25">
@@ -3178,37 +3178,37 @@
         <v>110</v>
       </c>
       <c r="D25" t="n">
-        <v>-224.91</v>
+        <v>-192.6</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1628.54</v>
+        <v>1478.63</v>
       </c>
       <c r="G25" t="n">
-        <v>-107.14</v>
+        <v>82.84</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-87.93</v>
+        <v>-87.85</v>
       </c>
       <c r="J25" t="n">
-        <v>-162.5</v>
+        <v>-69.6</v>
       </c>
       <c r="K25" t="n">
-        <v>-191.2</v>
+        <v>-85.3</v>
       </c>
       <c r="L25" t="n">
-        <v>608.86</v>
+        <v>604.64</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-185.34</v>
+        <v>-76.09</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3217,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-408.08</v>
+        <v>-259.84</v>
       </c>
       <c r="R25" t="n">
-        <v>-171.94</v>
+        <v>-128.21</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3229,22 +3229,22 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-25.64</v>
+        <v>86.08</v>
       </c>
       <c r="V25" t="n">
-        <v>-130.44</v>
+        <v>-89.35</v>
       </c>
       <c r="W25" t="n">
-        <v>-26.4</v>
+        <v>81.84</v>
       </c>
       <c r="X25" t="n">
-        <v>-130.02</v>
+        <v>-89.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>122.49</v>
+        <v>468.52</v>
       </c>
       <c r="Z25" t="n">
-        <v>-292.93</v>
+        <v>-144.85</v>
       </c>
     </row>
     <row r="26">
@@ -3258,37 +3258,37 @@
         <v>111</v>
       </c>
       <c r="D26" t="n">
-        <v>-500.84</v>
+        <v>-321.15</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>897.44</v>
+        <v>638.1</v>
       </c>
       <c r="G26" t="n">
-        <v>-169.26</v>
+        <v>6.37</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-260.55</v>
+        <v>-201.18</v>
       </c>
       <c r="J26" t="n">
-        <v>-375.7</v>
+        <v>-194.27</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>271.61</v>
+        <v>298.6</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>-391.23</v>
+        <v>-296.68</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3297,10 +3297,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1000.52</v>
+        <v>927.64</v>
       </c>
       <c r="R26" t="n">
-        <v>-411.86</v>
+        <v>-230.44</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -3309,22 +3309,22 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-119.65</v>
+        <v>-38.27</v>
       </c>
       <c r="V26" t="n">
-        <v>-289.12</v>
+        <v>-226.41</v>
       </c>
       <c r="W26" t="n">
-        <v>157.1</v>
+        <v>273.11</v>
       </c>
       <c r="X26" t="n">
-        <v>-309.88</v>
+        <v>-244.92</v>
       </c>
       <c r="Y26" t="n">
-        <v>395.85</v>
+        <v>575.55</v>
       </c>
       <c r="Z26" t="n">
-        <v>-255.83</v>
+        <v>-185.66</v>
       </c>
     </row>
     <row r="27">
@@ -3338,73 +3338,73 @@
         <v>112</v>
       </c>
       <c r="D27" t="n">
-        <v>-347.48</v>
+        <v>-203.98</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>3369.81</v>
+        <v>2536.14</v>
       </c>
       <c r="G27" t="n">
-        <v>-79.62</v>
+        <v>126.68</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-208.35</v>
+        <v>-61.96</v>
       </c>
       <c r="J27" t="n">
-        <v>-210.73</v>
+        <v>-64.81</v>
       </c>
       <c r="K27" t="n">
-        <v>-236.69</v>
+        <v>-175.05</v>
       </c>
       <c r="L27" t="n">
-        <v>3757.37</v>
+        <v>2296.27</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>-184.87</v>
+        <v>-92.04</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-306.18</v>
+        <v>-217.25</v>
       </c>
       <c r="Q27" t="n">
-        <v>-145.65</v>
+        <v>-47.86</v>
       </c>
       <c r="R27" t="n">
-        <v>-323.34</v>
+        <v>-182.07</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>-485</v>
+        <v>-399.49</v>
       </c>
       <c r="U27" t="n">
-        <v>-368.34</v>
+        <v>-257.42</v>
       </c>
       <c r="V27" t="n">
-        <v>-209.66</v>
+        <v>-62.37</v>
       </c>
       <c r="W27" t="n">
-        <v>179.32</v>
+        <v>271.39</v>
       </c>
       <c r="X27" t="n">
-        <v>-239.82</v>
+        <v>-105.55</v>
       </c>
       <c r="Y27" t="n">
-        <v>582.33</v>
+        <v>744.72</v>
       </c>
       <c r="Z27" t="n">
-        <v>-244.98</v>
+        <v>-148.16</v>
       </c>
     </row>
     <row r="28">
@@ -3418,37 +3418,37 @@
         <v>113</v>
       </c>
       <c r="D28" t="n">
-        <v>-280.89</v>
+        <v>-228.89</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2814.18</v>
+        <v>1193.62</v>
       </c>
       <c r="G28" t="n">
-        <v>217.22</v>
+        <v>678.02</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-161.88</v>
+        <v>-96.34</v>
       </c>
       <c r="J28" t="n">
-        <v>-141.87</v>
+        <v>-43.41</v>
       </c>
       <c r="K28" t="n">
-        <v>759.23</v>
+        <v>355.27</v>
       </c>
       <c r="L28" t="n">
-        <v>2590.32</v>
+        <v>1062.04</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>5.65</v>
+        <v>37.69</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-264.02</v>
+        <v>-206.54</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>734.59</v>
+        <v>345.2</v>
       </c>
       <c r="V28" t="n">
-        <v>-181.45</v>
+        <v>-139.58</v>
       </c>
       <c r="W28" t="n">
-        <v>577.17</v>
+        <v>640.38</v>
       </c>
       <c r="X28" t="n">
-        <v>-127.93</v>
+        <v>-79.46</v>
       </c>
       <c r="Y28" t="n">
-        <v>940.08</v>
+        <v>1418.98</v>
       </c>
       <c r="Z28" t="n">
-        <v>-377.22</v>
+        <v>-197.44</v>
       </c>
     </row>
     <row r="29">
@@ -3498,37 +3498,37 @@
         <v>114</v>
       </c>
       <c r="D29" t="n">
-        <v>-344.94</v>
+        <v>-177.53</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2932.71</v>
+        <v>1791.66</v>
       </c>
       <c r="G29" t="n">
-        <v>-105.46</v>
+        <v>134</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-208.14</v>
+        <v>-62.03</v>
       </c>
       <c r="J29" t="n">
-        <v>-246.58</v>
+        <v>-59.99</v>
       </c>
       <c r="K29" t="n">
-        <v>573.07</v>
+        <v>471.53</v>
       </c>
       <c r="L29" t="n">
-        <v>2316.81</v>
+        <v>1406.32</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>-118.18</v>
+        <v>21.65</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-334.86</v>
+        <v>-165.47</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3549,19 +3549,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.63</v>
+        <v>193.44</v>
       </c>
       <c r="V29" t="n">
-        <v>-199.5</v>
+        <v>-47.14</v>
       </c>
       <c r="W29" t="n">
-        <v>185.24</v>
+        <v>323.32</v>
       </c>
       <c r="X29" t="n">
-        <v>-157.27</v>
+        <v>-89.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>692.44</v>
+        <v>1038.52</v>
       </c>
       <c r="Z29" t="n">
         <v>0</v>
@@ -3578,70 +3578,70 @@
         <v>116</v>
       </c>
       <c r="D30" t="n">
-        <v>-237.83</v>
+        <v>-176.08</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2175.86</v>
+        <v>1668.47</v>
       </c>
       <c r="G30" t="n">
-        <v>-93.55</v>
+        <v>25.04</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-117.74</v>
+        <v>-54.55</v>
       </c>
       <c r="J30" t="n">
-        <v>-166.79</v>
+        <v>-80.27</v>
       </c>
       <c r="K30" t="n">
-        <v>210.33</v>
+        <v>241.37</v>
       </c>
       <c r="L30" t="n">
-        <v>1508.1</v>
+        <v>1095.23</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-181.42</v>
+        <v>-99.21</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-208.7</v>
+        <v>-127.04</v>
       </c>
       <c r="Q30" t="n">
-        <v>-213.06</v>
+        <v>-131.09</v>
       </c>
       <c r="R30" t="n">
-        <v>-234.69</v>
+        <v>-171.39</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>-125.44</v>
+        <v>-48.6</v>
       </c>
       <c r="U30" t="n">
-        <v>511.52</v>
+        <v>489.45</v>
       </c>
       <c r="V30" t="n">
-        <v>-138.1</v>
+        <v>-71.1</v>
       </c>
       <c r="W30" t="n">
-        <v>175.75</v>
+        <v>264.8</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>322.95</v>
+        <v>578.81</v>
       </c>
       <c r="Z30" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         <v>117</v>
       </c>
       <c r="D31" t="n">
-        <v>-202.61</v>
+        <v>-133.23</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>638.38</v>
+        <v>641.03</v>
       </c>
       <c r="G31" t="n">
-        <v>-108.03</v>
+        <v>-42.41</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3676,55 +3676,55 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-170.71</v>
+        <v>-82.53</v>
       </c>
       <c r="K31" t="n">
-        <v>-116.51</v>
+        <v>-34.53</v>
       </c>
       <c r="L31" t="n">
-        <v>586.18</v>
+        <v>591.57</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-174.89</v>
+        <v>-91.7</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-211.08</v>
+        <v>-133.07</v>
       </c>
       <c r="Q31" t="n">
-        <v>-190.01</v>
+        <v>-126.77</v>
       </c>
       <c r="R31" t="n">
-        <v>-198.5</v>
+        <v>-125.12</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>-178.25</v>
+        <v>-95.72</v>
       </c>
       <c r="U31" t="n">
-        <v>419.96</v>
+        <v>512.92</v>
       </c>
       <c r="V31" t="n">
-        <v>-114.07</v>
+        <v>-74.51</v>
       </c>
       <c r="W31" t="n">
-        <v>77.53</v>
+        <v>197.58</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.39</v>
+        <v>405.69</v>
       </c>
       <c r="Z31" t="n">
-        <v>-203.7</v>
+        <v>-118.26</v>
       </c>
     </row>
     <row r="32">
@@ -3738,73 +3738,73 @@
         <v>118</v>
       </c>
       <c r="D32" t="n">
-        <v>-440.39</v>
+        <v>-330.75</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5519.39</v>
+        <v>2904.12</v>
       </c>
       <c r="G32" t="n">
-        <v>-98.91</v>
+        <v>72.83</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-285.01</v>
+        <v>-196.07</v>
       </c>
       <c r="J32" t="n">
-        <v>-270.32</v>
+        <v>-148.81</v>
       </c>
       <c r="K32" t="n">
-        <v>73.54</v>
+        <v>65.81</v>
       </c>
       <c r="L32" t="n">
-        <v>3214.02</v>
+        <v>1584.46</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-162.27</v>
+        <v>-85.21</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-289.4</v>
+        <v>-211.42</v>
       </c>
       <c r="Q32" t="n">
-        <v>-267.11</v>
+        <v>-209.11</v>
       </c>
       <c r="R32" t="n">
-        <v>-455.6</v>
+        <v>-334.31</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-132.54</v>
+        <v>-60.8</v>
       </c>
       <c r="U32" t="n">
-        <v>1609.39</v>
+        <v>1193.4</v>
       </c>
       <c r="V32" t="n">
-        <v>-262.21</v>
+        <v>-130.54</v>
       </c>
       <c r="W32" t="n">
-        <v>598.82</v>
+        <v>698.83</v>
       </c>
       <c r="X32" t="n">
-        <v>-258.56</v>
+        <v>-172.06</v>
       </c>
       <c r="Y32" t="n">
-        <v>890.48</v>
+        <v>1094.02</v>
       </c>
       <c r="Z32" t="n">
-        <v>-148.61</v>
+        <v>-54.67</v>
       </c>
     </row>
     <row r="33">
@@ -3818,70 +3818,70 @@
         <v>119</v>
       </c>
       <c r="D33" t="n">
-        <v>-226.53</v>
+        <v>-183.21</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1480.32</v>
+        <v>960.76</v>
       </c>
       <c r="G33" t="n">
-        <v>-85.16</v>
+        <v>31.78</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-218.84</v>
+        <v>-129.09</v>
       </c>
       <c r="J33" t="n">
-        <v>-155.96</v>
+        <v>-83.2</v>
       </c>
       <c r="K33" t="n">
-        <v>776.45</v>
+        <v>695.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1504.92</v>
+        <v>952.75</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>-195.19</v>
+        <v>-129.2</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-201.92</v>
+        <v>-136.85</v>
       </c>
       <c r="Q33" t="n">
-        <v>-214.05</v>
+        <v>-149.64</v>
       </c>
       <c r="R33" t="n">
-        <v>-248.65</v>
+        <v>-209.3</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>-128.32</v>
+        <v>-55.38</v>
       </c>
       <c r="U33" t="n">
-        <v>781.48</v>
+        <v>771.03</v>
       </c>
       <c r="V33" t="n">
-        <v>-159.06</v>
+        <v>-104.71</v>
       </c>
       <c r="W33" t="n">
-        <v>308.01</v>
+        <v>419.04</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>423.29</v>
+        <v>787.23</v>
       </c>
       <c r="Z33" t="n">
         <v>0</v>
@@ -3898,16 +3898,16 @@
         <v>120</v>
       </c>
       <c r="D34" t="n">
-        <v>-154.69</v>
+        <v>-129.13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>539.87</v>
+        <v>518.37</v>
       </c>
       <c r="G34" t="n">
-        <v>-66.02</v>
+        <v>9.97</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3916,55 +3916,55 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-132.04</v>
+        <v>-85.12</v>
       </c>
       <c r="K34" t="n">
-        <v>-46.39</v>
+        <v>27.57</v>
       </c>
       <c r="L34" t="n">
-        <v>330.34</v>
+        <v>323.47</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-171.58</v>
+        <v>-108.77</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-185.39</v>
+        <v>-125.26</v>
       </c>
       <c r="Q34" t="n">
-        <v>49.73</v>
+        <v>155.88</v>
       </c>
       <c r="R34" t="n">
-        <v>-158.97</v>
+        <v>-135.1</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-167.55</v>
+        <v>-103.96</v>
       </c>
       <c r="U34" t="n">
-        <v>62.17</v>
+        <v>112.48</v>
       </c>
       <c r="V34" t="n">
-        <v>-91.04</v>
+        <v>-83.73</v>
       </c>
       <c r="W34" t="n">
-        <v>26.75</v>
+        <v>127.7</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>40.66</v>
+        <v>249</v>
       </c>
       <c r="Z34" t="n">
-        <v>-126.61</v>
+        <v>-64.7</v>
       </c>
     </row>
     <row r="35">
@@ -4458,73 +4458,73 @@
         <v>129</v>
       </c>
       <c r="D41" t="n">
-        <v>-707.31</v>
+        <v>-564.98</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5540.12</v>
+        <v>1694.85</v>
       </c>
       <c r="G41" t="n">
-        <v>92.99</v>
+        <v>299.71</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-335.37</v>
+        <v>-176.27</v>
       </c>
       <c r="J41" t="n">
-        <v>-284.81</v>
+        <v>-145.87</v>
       </c>
       <c r="K41" t="n">
-        <v>1224.9</v>
+        <v>741.15</v>
       </c>
       <c r="L41" t="n">
-        <v>8776.29</v>
+        <v>2630.5</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>-130.03</v>
+        <v>-128.21</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-164.93</v>
+        <v>-175.76</v>
       </c>
       <c r="Q41" t="n">
-        <v>1187.08</v>
+        <v>1055.81</v>
       </c>
       <c r="R41" t="n">
-        <v>-598.14</v>
+        <v>-460.88</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1538.47</v>
+        <v>1323.36</v>
       </c>
       <c r="U41" t="n">
-        <v>2454.94</v>
+        <v>843.21</v>
       </c>
       <c r="V41" t="n">
-        <v>-419.32</v>
+        <v>-254.42</v>
       </c>
       <c r="W41" t="n">
-        <v>1041.72</v>
+        <v>1125.48</v>
       </c>
       <c r="X41" t="n">
-        <v>-321.57</v>
+        <v>-244.21</v>
       </c>
       <c r="Y41" t="n">
-        <v>1431.2</v>
+        <v>1573.54</v>
       </c>
       <c r="Z41" t="n">
-        <v>-58.17</v>
+        <v>-65.04</v>
       </c>
     </row>
     <row r="42">
@@ -4538,73 +4538,73 @@
         <v>130</v>
       </c>
       <c r="D42" t="n">
-        <v>-701.12</v>
+        <v>-573.58</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>4062.31</v>
+        <v>1506.33</v>
       </c>
       <c r="G42" t="n">
-        <v>201.38</v>
+        <v>362.65</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-359.16</v>
+        <v>-203.7</v>
       </c>
       <c r="J42" t="n">
-        <v>-228.47</v>
+        <v>-110.29</v>
       </c>
       <c r="K42" t="n">
-        <v>1314.52</v>
+        <v>450.97</v>
       </c>
       <c r="L42" t="n">
-        <v>6268.89</v>
+        <v>2296.1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>102.32</v>
+        <v>20.85</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>4.12</v>
+        <v>-103.49</v>
       </c>
       <c r="Q42" t="n">
-        <v>3176.21</v>
+        <v>2637.39</v>
       </c>
       <c r="R42" t="n">
-        <v>-639.16</v>
+        <v>-522.96</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3724.1</v>
+        <v>3181.12</v>
       </c>
       <c r="U42" t="n">
-        <v>1769.19</v>
+        <v>734.75</v>
       </c>
       <c r="V42" t="n">
-        <v>-418.21</v>
+        <v>-257.26</v>
       </c>
       <c r="W42" t="n">
-        <v>1741.84</v>
+        <v>1693.92</v>
       </c>
       <c r="X42" t="n">
-        <v>-506.08</v>
+        <v>-323.9</v>
       </c>
       <c r="Y42" t="n">
-        <v>2252.87</v>
+        <v>2378.86</v>
       </c>
       <c r="Z42" t="n">
-        <v>135.02</v>
+        <v>65.97</v>
       </c>
     </row>
     <row r="43">
@@ -4618,73 +4618,73 @@
         <v>131</v>
       </c>
       <c r="D43" t="n">
-        <v>-562.93</v>
+        <v>-550.86</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5541.85</v>
+        <v>1195.07</v>
       </c>
       <c r="G43" t="n">
-        <v>-16.96</v>
+        <v>176.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-330.01</v>
+        <v>-191.74</v>
       </c>
       <c r="J43" t="n">
-        <v>-271.25</v>
+        <v>-200.15</v>
       </c>
       <c r="K43" t="n">
-        <v>478.23</v>
+        <v>160.5</v>
       </c>
       <c r="L43" t="n">
-        <v>6392.95</v>
+        <v>1292.4</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>-214.56</v>
+        <v>-211.54</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-199.54</v>
+        <v>-207.46</v>
       </c>
       <c r="Q43" t="n">
-        <v>299.26</v>
+        <v>199.31</v>
       </c>
       <c r="R43" t="n">
-        <v>-464.77</v>
+        <v>-477.71</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1995.95</v>
+        <v>1825.76</v>
       </c>
       <c r="U43" t="n">
-        <v>2386.35</v>
+        <v>627.92</v>
       </c>
       <c r="V43" t="n">
-        <v>-403.28</v>
+        <v>-267.89</v>
       </c>
       <c r="W43" t="n">
-        <v>27.86</v>
+        <v>118.86</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1465.1</v>
+        <v>1916.49</v>
       </c>
       <c r="Z43" t="n">
-        <v>-242.61</v>
+        <v>-235.98</v>
       </c>
     </row>
     <row r="44">
@@ -4698,73 +4698,73 @@
         <v>132</v>
       </c>
       <c r="D44" t="n">
-        <v>-518.34</v>
+        <v>-420.55</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2861.51</v>
+        <v>881.6</v>
       </c>
       <c r="G44" t="n">
-        <v>-19.7</v>
+        <v>187.08</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-368.64</v>
+        <v>-266.38</v>
       </c>
       <c r="J44" t="n">
-        <v>-349</v>
+        <v>-237.23</v>
       </c>
       <c r="K44" t="n">
-        <v>1016.82</v>
+        <v>322.64</v>
       </c>
       <c r="L44" t="n">
-        <v>3982.65</v>
+        <v>1391.35</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-47.12</v>
+        <v>-135.96</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>-164.31</v>
+        <v>-226.96</v>
       </c>
       <c r="Q44" t="n">
-        <v>1332.39</v>
+        <v>1212.43</v>
       </c>
       <c r="R44" t="n">
-        <v>-505.9</v>
+        <v>-407.69</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>120.97</v>
+        <v>2.18</v>
       </c>
       <c r="U44" t="n">
-        <v>311.08</v>
+        <v>-53.07</v>
       </c>
       <c r="V44" t="n">
-        <v>-370.77</v>
+        <v>-264.97</v>
       </c>
       <c r="W44" t="n">
-        <v>1036.67</v>
+        <v>1091.46</v>
       </c>
       <c r="X44" t="n">
-        <v>-322.15</v>
+        <v>-193.48</v>
       </c>
       <c r="Y44" t="n">
-        <v>1080.45</v>
+        <v>1274.69</v>
       </c>
       <c r="Z44" t="n">
-        <v>577.81</v>
+        <v>136.53</v>
       </c>
     </row>
     <row r="45">
@@ -4778,73 +4778,73 @@
         <v>133</v>
       </c>
       <c r="D45" t="n">
-        <v>-828.31</v>
+        <v>-701.46</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>6940.88</v>
+        <v>1206.94</v>
       </c>
       <c r="G45" t="n">
-        <v>620.67</v>
+        <v>814.83</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-428.92</v>
+        <v>-274.25</v>
       </c>
       <c r="J45" t="n">
-        <v>-397.65</v>
+        <v>-273.24</v>
       </c>
       <c r="K45" t="n">
-        <v>-146.19</v>
+        <v>-194.91</v>
       </c>
       <c r="L45" t="n">
-        <v>10026.87</v>
+        <v>1986.65</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1025.1</v>
+        <v>199.7</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>727.61</v>
+        <v>-48.97</v>
       </c>
       <c r="Q45" t="n">
-        <v>1603.15</v>
+        <v>539.13</v>
       </c>
       <c r="R45" t="n">
-        <v>-674.94</v>
+        <v>-539.97</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>-566.35</v>
+        <v>-470.19</v>
       </c>
       <c r="U45" t="n">
-        <v>2167.52</v>
+        <v>176.23</v>
       </c>
       <c r="V45" t="n">
-        <v>-498.92</v>
+        <v>-339.59</v>
       </c>
       <c r="W45" t="n">
-        <v>830.45</v>
+        <v>768.96</v>
       </c>
       <c r="X45" t="n">
-        <v>-457.06</v>
+        <v>-295.09</v>
       </c>
       <c r="Y45" t="n">
-        <v>3199.85</v>
+        <v>3326.49</v>
       </c>
       <c r="Z45" t="n">
-        <v>1517.67</v>
+        <v>456.4</v>
       </c>
     </row>
     <row r="46">
@@ -4858,73 +4858,73 @@
         <v>134</v>
       </c>
       <c r="D46" t="n">
-        <v>-599.18</v>
+        <v>-459.63</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>5631.36</v>
+        <v>426.62</v>
       </c>
       <c r="G46" t="n">
-        <v>75.87</v>
+        <v>332.96</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-364.33</v>
+        <v>-226.68</v>
       </c>
       <c r="J46" t="n">
-        <v>-414.61</v>
+        <v>-273.46</v>
       </c>
       <c r="K46" t="n">
-        <v>-331.51</v>
+        <v>-337.18</v>
       </c>
       <c r="L46" t="n">
-        <v>7678.77</v>
+        <v>696.18</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>254.84</v>
+        <v>-86.36</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>456.77</v>
+        <v>-126.46</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.85</v>
+        <v>-254.56</v>
       </c>
       <c r="R46" t="n">
-        <v>-571.58</v>
+        <v>-427.16</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>-628.77</v>
+        <v>-545.14</v>
       </c>
       <c r="U46" t="n">
-        <v>2034.73</v>
+        <v>104.18</v>
       </c>
       <c r="V46" t="n">
-        <v>-369.07</v>
+        <v>-232.81</v>
       </c>
       <c r="W46" t="n">
-        <v>702.08</v>
+        <v>677.79</v>
       </c>
       <c r="X46" t="n">
-        <v>-325.92</v>
+        <v>-181.7</v>
       </c>
       <c r="Y46" t="n">
-        <v>1743.29</v>
+        <v>1880.35</v>
       </c>
       <c r="Z46" t="n">
-        <v>710.29</v>
+        <v>158.64</v>
       </c>
     </row>
     <row r="47">
@@ -4938,49 +4938,49 @@
         <v>135</v>
       </c>
       <c r="D47" t="n">
-        <v>-790.43</v>
+        <v>-671.38</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2462.44</v>
+        <v>1198.06</v>
       </c>
       <c r="G47" t="n">
-        <v>123.97</v>
+        <v>322.53</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-342.69</v>
+        <v>-212.23</v>
       </c>
       <c r="J47" t="n">
-        <v>-369.81</v>
+        <v>-227.49</v>
       </c>
       <c r="K47" t="n">
-        <v>1208.8</v>
+        <v>1070.54</v>
       </c>
       <c r="L47" t="n">
-        <v>4632.81</v>
+        <v>2698.35</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>-8.55</v>
+        <v>-16.39</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>-270.31</v>
+        <v>-252.07</v>
       </c>
       <c r="Q47" t="n">
-        <v>512.85</v>
+        <v>438.84</v>
       </c>
       <c r="R47" t="n">
-        <v>-656.27</v>
+        <v>-536.42</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4989,22 +4989,22 @@
         <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>370.79</v>
+        <v>229.27</v>
       </c>
       <c r="V47" t="n">
-        <v>-471.33</v>
+        <v>-310.57</v>
       </c>
       <c r="W47" t="n">
-        <v>737.48</v>
+        <v>822.31</v>
       </c>
       <c r="X47" t="n">
-        <v>-444.08</v>
+        <v>-286.67</v>
       </c>
       <c r="Y47" t="n">
-        <v>1472.23</v>
+        <v>1724</v>
       </c>
       <c r="Z47" t="n">
-        <v>163.28</v>
+        <v>116.06</v>
       </c>
     </row>
     <row r="48">
@@ -5018,49 +5018,49 @@
         <v>137</v>
       </c>
       <c r="D48" t="n">
-        <v>-801.22</v>
+        <v>-648.93</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>5083.14</v>
+        <v>2051.66</v>
       </c>
       <c r="G48" t="n">
-        <v>190.04</v>
+        <v>438.83</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-396.24</v>
+        <v>-357.09</v>
       </c>
       <c r="J48" t="n">
-        <v>-390.93</v>
+        <v>-239.84</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>2953.36</v>
+        <v>1201.69</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1142.79</v>
+        <v>367.89</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>-140.62</v>
+        <v>-265.16</v>
       </c>
       <c r="Q48" t="n">
-        <v>5648.09</v>
+        <v>3185.17</v>
       </c>
       <c r="R48" t="n">
-        <v>-640.18</v>
+        <v>-465.33</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -5069,22 +5069,22 @@
         <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>786.36</v>
+        <v>273.48</v>
       </c>
       <c r="V48" t="n">
-        <v>-476.69</v>
+        <v>-341.72</v>
       </c>
       <c r="W48" t="n">
-        <v>2090.31</v>
+        <v>2078.74</v>
       </c>
       <c r="X48" t="n">
-        <v>-469.86</v>
+        <v>-321.65</v>
       </c>
       <c r="Y48" t="n">
-        <v>2865.28</v>
+        <v>3017.57</v>
       </c>
       <c r="Z48" t="n">
-        <v>1474.42</v>
+        <v>596.81</v>
       </c>
     </row>
     <row r="49">
@@ -5098,37 +5098,37 @@
         <v>138</v>
       </c>
       <c r="D49" t="n">
-        <v>-359.31</v>
+        <v>-249.58</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1314.77</v>
+        <v>689.33</v>
       </c>
       <c r="G49" t="n">
-        <v>-101.72</v>
+        <v>41.12</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-196.79</v>
+        <v>-204.15</v>
       </c>
       <c r="J49" t="n">
-        <v>-267.76</v>
+        <v>-149.15</v>
       </c>
       <c r="K49" t="n">
-        <v>65.73</v>
+        <v>52.14</v>
       </c>
       <c r="L49" t="n">
-        <v>1219.91</v>
+        <v>676.09</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>-198.83</v>
+        <v>-115.94</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5137,10 +5137,10 @@
         <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>21.88</v>
+        <v>92.59</v>
       </c>
       <c r="R49" t="n">
-        <v>-283.73</v>
+        <v>-169.63</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -5149,22 +5149,22 @@
         <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>-26.62</v>
+        <v>-50.99</v>
       </c>
       <c r="V49" t="n">
-        <v>-215.25</v>
+        <v>-187.52</v>
       </c>
       <c r="W49" t="n">
-        <v>178.86</v>
+        <v>269.56</v>
       </c>
       <c r="X49" t="n">
-        <v>-200.65</v>
+        <v>-157.59</v>
       </c>
       <c r="Y49" t="n">
-        <v>407.12</v>
+        <v>591.13</v>
       </c>
       <c r="Z49" t="n">
-        <v>-26.91</v>
+        <v>48.27</v>
       </c>
     </row>
     <row r="50">
@@ -5178,37 +5178,37 @@
         <v>139</v>
       </c>
       <c r="D50" t="n">
-        <v>-612.97</v>
+        <v>-486.04</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>7494.74</v>
+        <v>2275.14</v>
       </c>
       <c r="G50" t="n">
-        <v>31.93</v>
+        <v>211.64</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-497.06</v>
+        <v>-326.4</v>
       </c>
       <c r="J50" t="n">
-        <v>-309.55</v>
+        <v>-182.62</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>2236.19</v>
+        <v>770.18</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>183.2</v>
+        <v>236.55</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -5217,7 +5217,7 @@
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>744.14</v>
+        <v>780.36</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -5229,22 +5229,22 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>1385.75</v>
+        <v>326.09</v>
       </c>
       <c r="V50" t="n">
-        <v>-401.24</v>
+        <v>-221.82</v>
       </c>
       <c r="W50" t="n">
-        <v>876</v>
+        <v>954.46</v>
       </c>
       <c r="X50" t="n">
-        <v>-380.15</v>
+        <v>-200.72</v>
       </c>
       <c r="Y50" t="n">
-        <v>1729.97</v>
+        <v>1856.9</v>
       </c>
       <c r="Z50" t="n">
-        <v>380.61</v>
+        <v>429.87</v>
       </c>
     </row>
     <row r="51">
@@ -5258,49 +5258,49 @@
         <v>140</v>
       </c>
       <c r="D51" t="n">
-        <v>-744.46</v>
+        <v>-614.34</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>11801.98</v>
+        <v>2351.46</v>
       </c>
       <c r="G51" t="n">
-        <v>117.25</v>
+        <v>305.35</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-387.02</v>
+        <v>-199.21</v>
       </c>
       <c r="J51" t="n">
-        <v>-335.16</v>
+        <v>-205.04</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>18478.45</v>
+        <v>2746</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>298.32</v>
+        <v>279.93</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>-74.14</v>
+        <v>-98.78</v>
       </c>
       <c r="Q51" t="n">
-        <v>876.05</v>
+        <v>803.81</v>
       </c>
       <c r="R51" t="n">
-        <v>-751.1</v>
+        <v>-612.58</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -5309,22 +5309,22 @@
         <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>4012.51</v>
+        <v>556.94</v>
       </c>
       <c r="V51" t="n">
-        <v>-470.46</v>
+        <v>-282.35</v>
       </c>
       <c r="W51" t="n">
-        <v>1687.72</v>
+        <v>1767.9</v>
       </c>
       <c r="X51" t="n">
-        <v>-453.57</v>
+        <v>-265.47</v>
       </c>
       <c r="Y51" t="n">
-        <v>2093.31</v>
+        <v>2223.43</v>
       </c>
       <c r="Z51" t="n">
-        <v>629.06</v>
+        <v>576.25</v>
       </c>
     </row>
     <row r="52">
@@ -5338,37 +5338,37 @@
         <v>141</v>
       </c>
       <c r="D52" t="n">
-        <v>-553.07</v>
+        <v>-434.09</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>3278.54</v>
+        <v>1387.35</v>
       </c>
       <c r="G52" t="n">
-        <v>115.29</v>
+        <v>535.48</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-248.01</v>
+        <v>-368.69</v>
       </c>
       <c r="J52" t="n">
-        <v>-302.57</v>
+        <v>-164.29</v>
       </c>
       <c r="K52" t="n">
-        <v>-181.24</v>
+        <v>-43.76</v>
       </c>
       <c r="L52" t="n">
-        <v>1595.02</v>
+        <v>753.08</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>668.85</v>
+        <v>160.67</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -5377,10 +5377,10 @@
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>4410.48</v>
+        <v>2039.96</v>
       </c>
       <c r="R52" t="n">
-        <v>-366.37</v>
+        <v>-229.47</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
@@ -5389,22 +5389,22 @@
         <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>564.69</v>
+        <v>191.03</v>
       </c>
       <c r="V52" t="n">
-        <v>-331.29</v>
+        <v>-304.98</v>
       </c>
       <c r="W52" t="n">
-        <v>1398.9</v>
+        <v>1359.18</v>
       </c>
       <c r="X52" t="n">
-        <v>-302.51</v>
+        <v>-255.4</v>
       </c>
       <c r="Y52" t="n">
-        <v>1511.11</v>
+        <v>1799.15</v>
       </c>
       <c r="Z52" t="n">
-        <v>1175.7</v>
+        <v>369.54</v>
       </c>
     </row>
     <row r="53">
@@ -5418,49 +5418,49 @@
         <v>142</v>
       </c>
       <c r="D53" t="n">
-        <v>-804.49</v>
+        <v>-677.15</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>9041.35</v>
+        <v>2507.82</v>
       </c>
       <c r="G53" t="n">
-        <v>256.11</v>
+        <v>424.69</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-497.62</v>
+        <v>-333.73</v>
       </c>
       <c r="J53" t="n">
-        <v>-197.33</v>
+        <v>-69.99</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>7707.16</v>
+        <v>1650.5</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>751.5</v>
+        <v>131.01</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>313.73</v>
+        <v>-136.7</v>
       </c>
       <c r="Q53" t="n">
-        <v>5145.35</v>
+        <v>2902.44</v>
       </c>
       <c r="R53" t="n">
-        <v>-787.19</v>
+        <v>-659.01</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -5469,22 +5469,22 @@
         <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>2229.96</v>
+        <v>481.94</v>
       </c>
       <c r="V53" t="n">
-        <v>-498.3</v>
+        <v>-329.72</v>
       </c>
       <c r="W53" t="n">
-        <v>2414.13</v>
+        <v>2482.47</v>
       </c>
       <c r="X53" t="n">
-        <v>-496.45</v>
+        <v>-327.87</v>
       </c>
       <c r="Y53" t="n">
-        <v>3555.48</v>
+        <v>3682.83</v>
       </c>
       <c r="Z53" t="n">
-        <v>1540.57</v>
+        <v>659.45</v>
       </c>
     </row>
     <row r="54">
@@ -5498,49 +5498,49 @@
         <v>143</v>
       </c>
       <c r="D54" t="n">
-        <v>-434.22</v>
+        <v>-345.2</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>5575.09</v>
+        <v>1020.88</v>
       </c>
       <c r="G54" t="n">
-        <v>8.55</v>
+        <v>234.87</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-227.39</v>
+        <v>-180.41</v>
       </c>
       <c r="J54" t="n">
-        <v>-196.36</v>
+        <v>-77.18</v>
       </c>
       <c r="K54" t="n">
-        <v>-296.81</v>
+        <v>-199.63</v>
       </c>
       <c r="L54" t="n">
-        <v>10500.71</v>
+        <v>1891.35</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>-115.4</v>
+        <v>-50.74</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>-207.28</v>
+        <v>-150.04</v>
       </c>
       <c r="Q54" t="n">
-        <v>496.15</v>
+        <v>513.92</v>
       </c>
       <c r="R54" t="n">
-        <v>-373.61</v>
+        <v>-281.86</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -5549,22 +5549,22 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2615.1</v>
+        <v>325.4</v>
       </c>
       <c r="V54" t="n">
-        <v>-242.6</v>
+        <v>-187.65</v>
       </c>
       <c r="W54" t="n">
-        <v>651.24</v>
+        <v>732.76</v>
       </c>
       <c r="X54" t="n">
-        <v>-252.91</v>
+        <v>-208.28</v>
       </c>
       <c r="Y54" t="n">
-        <v>1289.45</v>
+        <v>1591.09</v>
       </c>
       <c r="Z54" t="n">
-        <v>306.32</v>
+        <v>333.79</v>
       </c>
     </row>
     <row r="55">
@@ -5578,73 +5578,73 @@
         <v>144</v>
       </c>
       <c r="D55" t="n">
-        <v>-543.62</v>
+        <v>-436.9</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>6151.25</v>
+        <v>1845.33</v>
       </c>
       <c r="G55" t="n">
-        <v>71.33</v>
+        <v>277.93</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-232.95</v>
+        <v>-104.14</v>
       </c>
       <c r="J55" t="n">
-        <v>-236.06</v>
+        <v>-110.01</v>
       </c>
       <c r="K55" t="n">
-        <v>2797.71</v>
+        <v>1072.67</v>
       </c>
       <c r="L55" t="n">
-        <v>10415.58</v>
+        <v>3252.02</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>-183.57</v>
+        <v>-137.66</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>-249</v>
+        <v>-198.09</v>
       </c>
       <c r="Q55" t="n">
-        <v>1769.73</v>
+        <v>1531.54</v>
       </c>
       <c r="R55" t="n">
-        <v>-501.67</v>
+        <v>-392.13</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2026.81</v>
+        <v>1651.33</v>
       </c>
       <c r="U55" t="n">
-        <v>4118.9</v>
+        <v>1617.5</v>
       </c>
       <c r="V55" t="n">
-        <v>-304.64</v>
+        <v>-196.39</v>
       </c>
       <c r="W55" t="n">
-        <v>1437.55</v>
+        <v>1522.01</v>
       </c>
       <c r="X55" t="n">
-        <v>-307.38</v>
+        <v>-209.58</v>
       </c>
       <c r="Y55" t="n">
-        <v>1529.69</v>
+        <v>1763.05</v>
       </c>
       <c r="Z55" t="n">
-        <v>76.47</v>
+        <v>61.9</v>
       </c>
     </row>
     <row r="56">
@@ -5658,37 +5658,37 @@
         <v>146</v>
       </c>
       <c r="D56" t="n">
-        <v>-128.8</v>
+        <v>-68.87</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1145.73</v>
+        <v>1146.91</v>
       </c>
       <c r="G56" t="n">
-        <v>-45.24</v>
+        <v>30.57</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-69.91</v>
+        <v>-11.37</v>
       </c>
       <c r="J56" t="n">
-        <v>-62.96</v>
+        <v>-1.49</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>2129.27</v>
+        <v>1629.41</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>11.94</v>
+        <v>50.9</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>-125.4</v>
+        <v>-65.39</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -5709,19 +5709,19 @@
         <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>553</v>
+        <v>490.96</v>
       </c>
       <c r="V56" t="n">
-        <v>-66.47</v>
+        <v>-5.66</v>
       </c>
       <c r="W56" t="n">
-        <v>401.39</v>
+        <v>440.35</v>
       </c>
       <c r="X56" t="n">
-        <v>-67.3</v>
+        <v>-7.85</v>
       </c>
       <c r="Y56" t="n">
-        <v>417.39</v>
+        <v>490.3</v>
       </c>
       <c r="Z56" t="n">
         <v>0</v>
@@ -5738,37 +5738,37 @@
         <v>147</v>
       </c>
       <c r="D57" t="n">
-        <v>-178.46</v>
+        <v>-122.08</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1769.39</v>
+        <v>1663.21</v>
       </c>
       <c r="G57" t="n">
-        <v>137.2</v>
+        <v>221.31</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-95.4</v>
+        <v>-27.9</v>
       </c>
       <c r="J57" t="n">
-        <v>-35.52</v>
+        <v>20.61</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>5264.87</v>
+        <v>2202.11</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>235.48</v>
+        <v>256.4</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>-167.81</v>
+        <v>-111.42</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -5789,19 +5789,19 @@
         <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>1032.9</v>
+        <v>947.8</v>
       </c>
       <c r="V57" t="n">
-        <v>-86.19</v>
+        <v>-18.01</v>
       </c>
       <c r="W57" t="n">
-        <v>864.1</v>
+        <v>899.09</v>
       </c>
       <c r="X57" t="n">
-        <v>-76.1</v>
+        <v>-7.2</v>
       </c>
       <c r="Y57" t="n">
-        <v>2093.72</v>
+        <v>2150.18</v>
       </c>
       <c r="Z57" t="n">
         <v>0</v>
@@ -5818,37 +5818,37 @@
         <v>148</v>
       </c>
       <c r="D58" t="n">
-        <v>-235.94</v>
+        <v>-154.4</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>756.4</v>
+        <v>753.54</v>
       </c>
       <c r="G58" t="n">
-        <v>136.06</v>
+        <v>257.81</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-144.73</v>
+        <v>-46.54</v>
       </c>
       <c r="J58" t="n">
-        <v>-90.6</v>
+        <v>-9.54</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>6364.53</v>
+        <v>1800.11</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>166.59</v>
+        <v>217.31</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>-224.14</v>
+        <v>-142.6</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5872,16 +5872,16 @@
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>-138.55</v>
+        <v>-39.59</v>
       </c>
       <c r="W58" t="n">
-        <v>787.39</v>
+        <v>842.4</v>
       </c>
       <c r="X58" t="n">
-        <v>-125.98</v>
+        <v>-30.78</v>
       </c>
       <c r="Y58" t="n">
-        <v>3111.28</v>
+        <v>3190.59</v>
       </c>
       <c r="Z58" t="n">
         <v>0</v>
@@ -5898,7 +5898,7 @@
         <v>149</v>
       </c>
       <c r="D59" t="n">
-        <v>-199.25</v>
+        <v>-145.98</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -5907,28 +5907,28 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>227.65</v>
+        <v>304.16</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-108.54</v>
+        <v>-38.65</v>
       </c>
       <c r="J59" t="n">
-        <v>-92.92</v>
+        <v>-36.84</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>5881.29</v>
+        <v>2378.27</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>320.56</v>
+        <v>352.68</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>-173.41</v>
+        <v>-120.16</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5949,19 +5949,19 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>1232.1</v>
+        <v>1097.19</v>
       </c>
       <c r="V59" t="n">
-        <v>-77.12</v>
+        <v>-6.76</v>
       </c>
       <c r="W59" t="n">
-        <v>730.48</v>
+        <v>763.36</v>
       </c>
       <c r="X59" t="n">
-        <v>-69.88</v>
+        <v>0.95</v>
       </c>
       <c r="Y59" t="n">
-        <v>2918.48</v>
+        <v>2971.57</v>
       </c>
       <c r="Z59" t="n">
         <v>0</v>
